--- a/data models source/Relaties in IMBOR.xlsx
+++ b/data models source/Relaties in IMBOR.xlsx
@@ -5117,7 +5117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
